--- a/natmiOut/OldD0/LR-pairs_lrc2p/C3-Cr2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/C3-Cr2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.154991114260371</v>
+        <v>46.85851166666667</v>
       </c>
       <c r="H2">
-        <v>8.154991114260371</v>
+        <v>140.575535</v>
       </c>
       <c r="I2">
-        <v>0.0280441144078711</v>
+        <v>0.1419057303676978</v>
       </c>
       <c r="J2">
-        <v>0.0280441144078711</v>
+        <v>0.1419057303676978</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.616432233883737</v>
+        <v>0.7328106666666666</v>
       </c>
       <c r="N2">
-        <v>0.616432233883737</v>
+        <v>2.198432</v>
       </c>
       <c r="O2">
-        <v>0.3740557694247821</v>
+        <v>0.4072614640191846</v>
       </c>
       <c r="P2">
-        <v>0.3740557694247821</v>
+        <v>0.4072614640191846</v>
       </c>
       <c r="Q2">
-        <v>5.026999389865546</v>
+        <v>34.33841717345777</v>
       </c>
       <c r="R2">
-        <v>5.026999389865546</v>
+        <v>309.04575456112</v>
       </c>
       <c r="S2">
-        <v>0.01049006279267284</v>
+        <v>0.05779273550226026</v>
       </c>
       <c r="T2">
-        <v>0.01049006279267284</v>
+        <v>0.05779273550226027</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.154991114260371</v>
+        <v>46.85851166666667</v>
       </c>
       <c r="H3">
-        <v>8.154991114260371</v>
+        <v>140.575535</v>
       </c>
       <c r="I3">
-        <v>0.0280441144078711</v>
+        <v>0.1419057303676978</v>
       </c>
       <c r="J3">
-        <v>0.0280441144078711</v>
+        <v>0.1419057303676978</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.60034224515025</v>
+        <v>0.6260680000000001</v>
       </c>
       <c r="N3">
-        <v>0.60034224515025</v>
+        <v>1.878204</v>
       </c>
       <c r="O3">
-        <v>0.3642922418463789</v>
+        <v>0.3479389450147599</v>
       </c>
       <c r="P3">
-        <v>0.3642922418463789</v>
+        <v>0.3479389450147599</v>
       </c>
       <c r="Q3">
-        <v>4.89578567471541</v>
+        <v>29.33661468212667</v>
       </c>
       <c r="R3">
-        <v>4.89578567471541</v>
+        <v>264.02953213914</v>
       </c>
       <c r="S3">
-        <v>0.0102162533082397</v>
+        <v>0.04937453011568575</v>
       </c>
       <c r="T3">
-        <v>0.0102162533082397</v>
+        <v>0.04937453011568576</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.154991114260371</v>
+        <v>46.85851166666667</v>
       </c>
       <c r="H4">
-        <v>8.154991114260371</v>
+        <v>140.575535</v>
       </c>
       <c r="I4">
-        <v>0.0280441144078711</v>
+        <v>0.1419057303676978</v>
       </c>
       <c r="J4">
-        <v>0.0280441144078711</v>
+        <v>0.1419057303676978</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.431194311373064</v>
+        <v>0.440483</v>
       </c>
       <c r="N4">
-        <v>0.431194311373064</v>
+        <v>1.321449</v>
       </c>
       <c r="O4">
-        <v>0.2616519887288389</v>
+        <v>0.2447995909660556</v>
       </c>
       <c r="P4">
-        <v>0.2616519887288389</v>
+        <v>0.2447995909660555</v>
       </c>
       <c r="Q4">
-        <v>3.516385777766957</v>
+        <v>20.64037779446833</v>
       </c>
       <c r="R4">
-        <v>3.516385777766957</v>
+        <v>185.763400150215</v>
       </c>
       <c r="S4">
-        <v>0.007337798306958557</v>
+        <v>0.03473846474975179</v>
       </c>
       <c r="T4">
-        <v>0.007337798306958557</v>
+        <v>0.03473846474975179</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>282.471973843355</v>
+        <v>283.1772156666667</v>
       </c>
       <c r="H5">
-        <v>282.471973843355</v>
+        <v>849.531647</v>
       </c>
       <c r="I5">
-        <v>0.9713899427343139</v>
+        <v>0.8575703363889615</v>
       </c>
       <c r="J5">
-        <v>0.9713899427343139</v>
+        <v>0.8575703363889616</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.616432233883737</v>
+        <v>0.7328106666666666</v>
       </c>
       <c r="N5">
-        <v>0.616432233883737</v>
+        <v>2.198432</v>
       </c>
       <c r="O5">
-        <v>0.3740557694247821</v>
+        <v>0.4072614640191846</v>
       </c>
       <c r="P5">
-        <v>0.3740557694247821</v>
+        <v>0.4072614640191846</v>
       </c>
       <c r="Q5">
-        <v>174.1248298458079</v>
+        <v>207.5152841975004</v>
       </c>
       <c r="R5">
-        <v>174.1248298458079</v>
+        <v>1867.637557777504</v>
       </c>
       <c r="S5">
-        <v>0.3633540124409788</v>
+        <v>0.349255350697193</v>
       </c>
       <c r="T5">
-        <v>0.3633540124409788</v>
+        <v>0.3492553506971931</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>282.471973843355</v>
+        <v>283.1772156666667</v>
       </c>
       <c r="H6">
-        <v>282.471973843355</v>
+        <v>849.531647</v>
       </c>
       <c r="I6">
-        <v>0.9713899427343139</v>
+        <v>0.8575703363889615</v>
       </c>
       <c r="J6">
-        <v>0.9713899427343139</v>
+        <v>0.8575703363889616</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.60034224515025</v>
+        <v>0.6260680000000001</v>
       </c>
       <c r="N6">
-        <v>0.60034224515025</v>
+        <v>1.878204</v>
       </c>
       <c r="O6">
-        <v>0.3642922418463789</v>
+        <v>0.3479389450147599</v>
       </c>
       <c r="P6">
-        <v>0.3642922418463789</v>
+        <v>0.3479389450147599</v>
       </c>
       <c r="Q6">
-        <v>169.5798589691424</v>
+        <v>177.2881930579987</v>
       </c>
       <c r="R6">
-        <v>169.5798589691424</v>
+        <v>1595.593737521988</v>
       </c>
       <c r="S6">
-        <v>0.3538698199457089</v>
+        <v>0.2983821181191281</v>
       </c>
       <c r="T6">
-        <v>0.3538698199457089</v>
+        <v>0.2983821181191281</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>282.471973843355</v>
+        <v>283.1772156666667</v>
       </c>
       <c r="H7">
-        <v>282.471973843355</v>
+        <v>849.531647</v>
       </c>
       <c r="I7">
-        <v>0.9713899427343139</v>
+        <v>0.8575703363889615</v>
       </c>
       <c r="J7">
-        <v>0.9713899427343139</v>
+        <v>0.8575703363889616</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.431194311373064</v>
+        <v>0.440483</v>
       </c>
       <c r="N7">
-        <v>0.431194311373064</v>
+        <v>1.321449</v>
       </c>
       <c r="O7">
-        <v>0.2616519887288389</v>
+        <v>0.2447995909660556</v>
       </c>
       <c r="P7">
-        <v>0.2616519887288389</v>
+        <v>0.2447995909660555</v>
       </c>
       <c r="Q7">
-        <v>121.8003082435756</v>
+        <v>124.7347494885003</v>
       </c>
       <c r="R7">
-        <v>121.8003082435756</v>
+        <v>1122.612745396503</v>
       </c>
       <c r="S7">
-        <v>0.2541661103476262</v>
+        <v>0.2099328675726405</v>
       </c>
       <c r="T7">
-        <v>0.2541661103476262</v>
+        <v>0.2099328675726405</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.164571393110754</v>
+        <v>0.1730073333333333</v>
       </c>
       <c r="H8">
-        <v>0.164571393110754</v>
+        <v>0.519022</v>
       </c>
       <c r="I8">
-        <v>0.000565942857815033</v>
+        <v>0.000523933243340694</v>
       </c>
       <c r="J8">
-        <v>0.000565942857815033</v>
+        <v>0.000523933243340694</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.616432233883737</v>
+        <v>0.7328106666666666</v>
       </c>
       <c r="N8">
-        <v>0.616432233883737</v>
+        <v>2.198432</v>
       </c>
       <c r="O8">
-        <v>0.3740557694247821</v>
+        <v>0.4072614640191846</v>
       </c>
       <c r="P8">
-        <v>0.3740557694247821</v>
+        <v>0.4072614640191846</v>
       </c>
       <c r="Q8">
-        <v>0.1014471114886207</v>
+        <v>0.1267816192782222</v>
       </c>
       <c r="R8">
-        <v>0.1014471114886207</v>
+        <v>1.141034573504</v>
       </c>
       <c r="S8">
-        <v>0.0002116941911304622</v>
+        <v>0.0002133778197312507</v>
       </c>
       <c r="T8">
-        <v>0.0002116941911304622</v>
+        <v>0.0002133778197312507</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.164571393110754</v>
+        <v>0.1730073333333333</v>
       </c>
       <c r="H9">
-        <v>0.164571393110754</v>
+        <v>0.519022</v>
       </c>
       <c r="I9">
-        <v>0.000565942857815033</v>
+        <v>0.000523933243340694</v>
       </c>
       <c r="J9">
-        <v>0.000565942857815033</v>
+        <v>0.000523933243340694</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.60034224515025</v>
+        <v>0.6260680000000001</v>
       </c>
       <c r="N9">
-        <v>0.60034224515025</v>
+        <v>1.878204</v>
       </c>
       <c r="O9">
-        <v>0.3642922418463789</v>
+        <v>0.3479389450147599</v>
       </c>
       <c r="P9">
-        <v>0.3642922418463789</v>
+        <v>0.3479389450147599</v>
       </c>
       <c r="Q9">
-        <v>0.09879915962761444</v>
+        <v>0.1083143551653333</v>
       </c>
       <c r="R9">
-        <v>0.09879915962761444</v>
+        <v>0.974829196488</v>
       </c>
       <c r="S9">
-        <v>0.0002061685924303849</v>
+        <v>0.0001822967799461226</v>
       </c>
       <c r="T9">
-        <v>0.0002061685924303849</v>
+        <v>0.0001822967799461226</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.164571393110754</v>
+        <v>0.1730073333333333</v>
       </c>
       <c r="H10">
-        <v>0.164571393110754</v>
+        <v>0.519022</v>
       </c>
       <c r="I10">
-        <v>0.000565942857815033</v>
+        <v>0.000523933243340694</v>
       </c>
       <c r="J10">
-        <v>0.000565942857815033</v>
+        <v>0.000523933243340694</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.431194311373064</v>
+        <v>0.440483</v>
       </c>
       <c r="N10">
-        <v>0.431194311373064</v>
+        <v>1.321449</v>
       </c>
       <c r="O10">
-        <v>0.2616519887288389</v>
+        <v>0.2447995909660556</v>
       </c>
       <c r="P10">
-        <v>0.2616519887288389</v>
+        <v>0.2447995909660555</v>
       </c>
       <c r="Q10">
-        <v>0.07096224852409738</v>
+        <v>0.07620678920866665</v>
       </c>
       <c r="R10">
-        <v>0.07096224852409738</v>
+        <v>0.685861102878</v>
       </c>
       <c r="S10">
-        <v>0.0001480800742541859</v>
+        <v>0.0001282586436633207</v>
       </c>
       <c r="T10">
-        <v>0.0001480800742541859</v>
+        <v>0.0001282586436633207</v>
       </c>
     </row>
   </sheetData>
